--- a/Sesion8/sesion8.xlsx
+++ b/Sesion8/sesion8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan7\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74D4C6DE-E184-4EEF-B5D3-E1EFFB7F9EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD06174-D028-48CA-98D9-05FA6AF3BF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Datos conocidos</t>
   </si>
@@ -171,6 +171,54 @@
   </si>
   <si>
     <t xml:space="preserve">Intel Xeon Silver 4112 2,6GHz </t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>DISCO</t>
+  </si>
+  <si>
+    <t>PLACA BASE</t>
+  </si>
+  <si>
+    <t>ADAPTADOR ETHERNET</t>
+  </si>
+  <si>
+    <t>FUENTE DE ALIMENTACIÓN</t>
+  </si>
+  <si>
+    <t>S.O.</t>
+  </si>
+  <si>
+    <t>MEMORIA</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Prestaciones</t>
+  </si>
+  <si>
+    <t>Prestaciones Totales</t>
+  </si>
+  <si>
+    <t>16 GB</t>
+  </si>
+  <si>
+    <t>Gigabit 3C996B-T de 3COM</t>
+  </si>
+  <si>
+    <t>1000 Mbps</t>
+  </si>
+  <si>
+    <t>2 Xeon : Supermicro X12DPL-NT6</t>
+  </si>
+  <si>
+    <t>Fuente 1</t>
+  </si>
+  <si>
+    <t>Windows Server 2012 Standard Edition</t>
   </si>
 </sst>
 </file>
@@ -218,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -263,24 +311,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,15 +672,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="44.85546875" customWidth="1"/>
@@ -578,31 +689,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>2.3691469999999998E-3</v>
       </c>
+      <c r="C2" s="9"/>
       <c r="E2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>3.04732E-4</v>
       </c>
+      <c r="C3" s="9"/>
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -612,15 +727,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>1.24704E-5</v>
       </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
@@ -628,13 +746,13 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>20.100000000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>4</v>
       </c>
       <c r="E6" t="s">
@@ -642,12 +760,13 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>510</v>
       </c>
+      <c r="C7" s="9"/>
       <c r="E7" t="s">
         <v>22</v>
       </c>
@@ -657,12 +776,13 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>1000</v>
       </c>
+      <c r="C8" s="9"/>
       <c r="E8" t="s">
         <v>23</v>
       </c>
@@ -672,7 +792,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="3" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F9">
@@ -681,31 +804,34 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="10">
         <v>22</v>
       </c>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="11">
         <v>21</v>
       </c>
+      <c r="C11" s="9"/>
       <c r="E11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="11">
         <v>2</v>
       </c>
+      <c r="C12" s="9"/>
       <c r="D12" t="s">
         <v>28</v>
       </c>
@@ -717,6 +843,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
       <c r="D13" t="s">
         <v>29</v>
       </c>
@@ -728,16 +857,17 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="10">
         <v>1.1000000000000001</v>
       </c>
+      <c r="C14" s="9"/>
       <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <f>(F7*B6*B2)/C6</f>
         <v>116.40408926666665</v>
       </c>
@@ -746,10 +876,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
       <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <f>F8*B7*B3</f>
         <v>1450.5243199999993</v>
       </c>
@@ -764,13 +897,15 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
       <c r="E16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <f>F9*B8*B4</f>
         <v>11.084799999999998</v>
       </c>
@@ -788,12 +923,13 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>480</v>
       </c>
+      <c r="C17" s="9"/>
       <c r="H17" t="s">
         <v>37</v>
       </c>
@@ -805,28 +941,37 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>0.1</v>
       </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="H20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="13">
         <v>0.9</v>
       </c>
+      <c r="C21" s="14"/>
       <c r="H21" t="s">
         <v>43</v>
       </c>
@@ -836,6 +981,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="H22" t="s">
         <v>40</v>
       </c>
@@ -844,12 +992,125 @@
         <v>2.6341240677966099E-4</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+    </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>42</v>
       </c>
       <c r="F25" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>58.7</v>
+      </c>
+      <c r="G29">
+        <f>F29*E29</f>
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>590</v>
+      </c>
+      <c r="G30">
+        <f>F30*E30</f>
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Sesion8/sesion8.xlsx
+++ b/Sesion8/sesion8.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan7\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UO282978\OneDrive - Universidad de Oviedo\CESPL\Sesion8\CESPL-main\Sesion8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD06174-D028-48CA-98D9-05FA6AF3BF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>Datos conocidos</t>
   </si>
@@ -161,12 +160,6 @@
     <t>Tpo disco = Ipb x Tsb /Ipn</t>
   </si>
   <si>
-    <t>0.954545455</t>
-  </si>
-  <si>
-    <t>Probabilidad disco</t>
-  </si>
-  <si>
     <t>Tpo cpu = (Nn x Ipb) /(Nb * Ipn cpu)*Tsb</t>
   </si>
   <si>
@@ -219,12 +212,33 @@
   </si>
   <si>
     <t>Windows Server 2012 Standard Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tres </t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Precio Total</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>Componentes Azure</t>
+  </si>
+  <si>
+    <t>D16ds v5 16 vCPU</t>
+  </si>
+  <si>
+    <t>Disco 2 x 300 GiB SSD NVMe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,7 +410,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -671,11 +707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +724,7 @@
     <col min="8" max="8" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -698,7 +734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -710,7 +746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -726,7 +762,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -735,7 +771,7 @@
       </c>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
@@ -745,7 +781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -759,7 +795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -775,7 +811,7 @@
         <v>9777.7777777777756</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -791,7 +827,7 @@
         <v>9333.3333333333303</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -803,7 +839,7 @@
         <v>888.88888888888869</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -812,7 +848,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -824,7 +860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -842,7 +878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -856,7 +892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -875,7 +911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -895,8 +931,17 @@
       <c r="K15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
@@ -910,7 +955,7 @@
         <v>11.084799999999998</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I16">
         <v>58.7</v>
@@ -921,8 +966,20 @@
       <c r="K16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16">
+        <v>87.6</v>
+      </c>
+      <c r="Q16">
+        <v>16</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
@@ -939,8 +996,17 @@
       <c r="K17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17">
+        <v>600</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -949,12 +1015,12 @@
       </c>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>16</v>
       </c>
@@ -963,8 +1029,12 @@
       <c r="H20" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N20" s="3"/>
+      <c r="O20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -973,14 +1043,21 @@
       </c>
       <c r="C21" s="14"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I21">
-        <f>(J16*I16)/(C6*B6)*B2</f>
-        <v>6.918852184079601E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <f>($C$6*$B$6)/(J16*I16)*$B$2</f>
+        <v>8.1124113628620095E-4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21">
+        <f>($C$6*$B$6)/(Q16*P16)*$B$2</f>
+        <v>1.359014118150685E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -988,43 +1065,64 @@
         <v>40</v>
       </c>
       <c r="I22">
-        <f>B3*B7/I17</f>
+        <f>$B$3*$B$7/I17</f>
         <v>2.6341240677966099E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22">
+        <f>$B$3*$B$7/P17</f>
+        <v>2.5902219999999999E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F25">
+        <f>($B$10*I21)+($B$11*I22)+($B$12*$B$4)</f>
+        <v>2.34039063406693E-2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25">
+        <f>($B$10*P21)+($B$11*P22)+($B$12*$B$4)</f>
+        <v>8.4542380599315053E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1036,10 +1134,20 @@
         <f>F29*E29</f>
         <v>117.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>425</v>
+      </c>
+      <c r="J29">
+        <f>I29*E29</f>
+        <v>850</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -1054,66 +1162,143 @@
         <f>F30*E30</f>
         <v>1770</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>180</v>
+      </c>
+      <c r="J30">
+        <f>I30*E30</f>
+        <v>540</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>135</v>
+      </c>
+      <c r="J31">
+        <f>I31*E29</f>
+        <v>270</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="I32">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <f>I32*E32</f>
+        <v>17</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>690</v>
+      </c>
+      <c r="J33">
+        <f>I33*E33</f>
+        <v>690</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>42</v>
+      </c>
+      <c r="J34">
+        <f>I34*E34</f>
+        <v>42</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
+      <c r="I35">
+        <v>180</v>
+      </c>
+      <c r="J35">
+        <f>I35*E29</f>
+        <v>360</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f>SUM(J29:J35)</f>
+        <v>2769</v>
+      </c>
+      <c r="K37" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$J$37&gt;5400</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$J$37&lt;=5400</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Sesion8/sesion8.xlsx
+++ b/Sesion8/sesion8.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>Datos conocidos</t>
   </si>
@@ -233,12 +233,42 @@
   </si>
   <si>
     <t>Disco 2 x 300 GiB SSD NVMe</t>
+  </si>
+  <si>
+    <t>Instancia de Cloud Azure (Microsoft)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Disco 2 x 300 GiB SSD NVMe </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 Gbps</t>
+  </si>
+  <si>
+    <t>/hora</t>
+  </si>
+  <si>
+    <t>Precio por instancia</t>
+  </si>
+  <si>
+    <t>Precio anual por instancia bruto</t>
+  </si>
+  <si>
+    <t>Precio anual por instancia con descuento</t>
+  </si>
+  <si>
+    <t>Precio anual total rebajado por todas las instancias</t>
+  </si>
+  <si>
+    <t>Precio anual total rebajado x3 instancias + Mantenimiento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -406,11 +436,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -422,13 +453,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -708,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,6 +746,8 @@
     <col min="5" max="5" width="44.85546875" customWidth="1"/>
     <col min="6" max="6" width="36.85546875" customWidth="1"/>
     <col min="8" max="8" width="39.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" customWidth="1"/>
+    <col min="19" max="19" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
@@ -979,7 +1005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
@@ -1006,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -1015,12 +1041,12 @@
       </c>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>16</v>
       </c>
@@ -1034,7 +1060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -1057,7 +1083,7 @@
         <v>1.359014118150685E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1076,12 +1102,23 @@
         <v>2.5902219999999999E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S24" t="s">
+        <v>70</v>
+      </c>
+      <c r="T24" s="17">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="U24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>59</v>
       </c>
@@ -1096,8 +1133,33 @@
         <f>($B$10*P21)+($B$11*P22)+($B$12*$B$4)</f>
         <v>8.4542380599315053E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" t="s">
+        <v>71</v>
+      </c>
+      <c r="T25" s="17">
+        <f>(T24*24)*365</f>
+        <v>7919.0400000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>72</v>
+      </c>
+      <c r="T26" s="17">
+        <f>T25-(T25*0.31)</f>
+        <v>5464.1376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S27" t="s">
+        <v>73</v>
+      </c>
+      <c r="T27" s="17">
+        <f>T26*3</f>
+        <v>16392.412799999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>50</v>
       </c>
@@ -1116,8 +1178,18 @@
       <c r="J28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>66</v>
+      </c>
+      <c r="S28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T28" s="17">
+        <f>T27+2700</f>
+        <v>19092.412799999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1144,8 +1216,14 @@
       <c r="K29" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1172,8 +1250,21 @@
       <c r="K30" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30">
+        <v>87.6</v>
+      </c>
+      <c r="Q30">
+        <f>P30*3</f>
+        <v>262.79999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1193,8 +1284,21 @@
       <c r="K31" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31">
+        <v>600</v>
+      </c>
+      <c r="Q31">
+        <f>P31*3</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1216,6 +1320,15 @@
       </c>
       <c r="K32" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="M32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32">
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">

--- a/Sesion8/sesion8.xlsx
+++ b/Sesion8/sesion8.xlsx
@@ -266,8 +266,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000\ &quot;€&quot;;[Red]\-#,##0.000\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -414,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -437,11 +438,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -735,7 +793,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1169,7 @@
       <c r="S24" t="s">
         <v>70</v>
       </c>
-      <c r="T24" s="17">
+      <c r="T24" s="18">
         <v>0.90400000000000003</v>
       </c>
       <c r="U24" t="s">
@@ -1405,11 +1463,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J37">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$J$37&gt;5400</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$J$37&lt;=5400</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$T$28&lt;=25000</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$T$28&gt;25000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
